--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H2">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N2">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q2">
-        <v>49.317924165522</v>
+        <v>4.798682158709999</v>
       </c>
       <c r="R2">
-        <v>443.861317489698</v>
+        <v>43.18813942839</v>
       </c>
       <c r="S2">
-        <v>0.01322046509121438</v>
+        <v>0.001818397132649426</v>
       </c>
       <c r="T2">
-        <v>0.01322046509121438</v>
+        <v>0.001818397132649426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H3">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P3">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q3">
-        <v>117.314346617635</v>
+        <v>56.48859439385833</v>
       </c>
       <c r="R3">
-        <v>1055.829119558715</v>
+        <v>508.397349544725</v>
       </c>
       <c r="S3">
-        <v>0.03144800294010208</v>
+        <v>0.0214056056800398</v>
       </c>
       <c r="T3">
-        <v>0.03144800294010207</v>
+        <v>0.0214056056800398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H4">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N4">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O4">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P4">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q4">
-        <v>17.110158521608</v>
+        <v>8.018834361588333</v>
       </c>
       <c r="R4">
-        <v>153.991426694472</v>
+        <v>72.16950925429499</v>
       </c>
       <c r="S4">
-        <v>0.00458665398569637</v>
+        <v>0.00303863121749717</v>
       </c>
       <c r="T4">
-        <v>0.004586653985696369</v>
+        <v>0.00303863121749717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.46983</v>
       </c>
       <c r="H5">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N5">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q5">
-        <v>537.2266968877399</v>
+        <v>108.55882674318</v>
       </c>
       <c r="R5">
-        <v>4835.040271989659</v>
+        <v>977.0294406886201</v>
       </c>
       <c r="S5">
-        <v>0.1440122817910091</v>
+        <v>0.04113693150426345</v>
       </c>
       <c r="T5">
-        <v>0.1440122817910091</v>
+        <v>0.04113693150426345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.46983</v>
       </c>
       <c r="H6">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P6">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q6">
         <v>1277.920755938783</v>
@@ -818,10 +818,10 @@
         <v>11501.28680344905</v>
       </c>
       <c r="S6">
-        <v>0.3425672720231401</v>
+        <v>0.4842511676116</v>
       </c>
       <c r="T6">
-        <v>0.3425672720231401</v>
+        <v>0.4842511676116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.46983</v>
       </c>
       <c r="H7">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N7">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O7">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P7">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q7">
-        <v>186.3832288426933</v>
+        <v>181.4071491611234</v>
       </c>
       <c r="R7">
-        <v>1677.44905958424</v>
+        <v>1632.66434245011</v>
       </c>
       <c r="S7">
-        <v>0.04996303093035033</v>
+        <v>0.06874183973155047</v>
       </c>
       <c r="T7">
-        <v>0.04996303093035032</v>
+        <v>0.06874183973155046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H8">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N8">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q8">
-        <v>414.7304168704587</v>
+        <v>69.36148848406799</v>
       </c>
       <c r="R8">
-        <v>3732.573751834128</v>
+        <v>624.2533963566119</v>
       </c>
       <c r="S8">
-        <v>0.1111751780163891</v>
+        <v>0.02628361862783413</v>
       </c>
       <c r="T8">
-        <v>0.1111751780163891</v>
+        <v>0.02628361862783412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H9">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P9">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q9">
-        <v>986.5343828001378</v>
+        <v>816.5018769620033</v>
       </c>
       <c r="R9">
-        <v>8878.809445201241</v>
+        <v>7348.516892658029</v>
       </c>
       <c r="S9">
-        <v>0.264456454519833</v>
+        <v>0.3094025865363233</v>
       </c>
       <c r="T9">
-        <v>0.264456454519833</v>
+        <v>0.3094025865363232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H10">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N10">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O10">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P10">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q10">
-        <v>143.8848714023325</v>
+        <v>115.9064653234873</v>
       </c>
       <c r="R10">
-        <v>1294.963842620992</v>
+        <v>1043.158187911386</v>
       </c>
       <c r="S10">
-        <v>0.03857066070226543</v>
+        <v>0.04392122195824236</v>
       </c>
       <c r="T10">
-        <v>0.03857066070226543</v>
+        <v>0.04392122195824235</v>
       </c>
     </row>
   </sheetData>
